--- a/工作跟踪.xlsx
+++ b/工作跟踪.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>获取同花顺数据的时候，如果运行目录不存在数据文件夹，应该建立数据文件夹</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +60,10 @@
   </si>
   <si>
     <t>客户端交易功能测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决掘金Dll多工程引用，版本唯一的问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -440,6 +444,11 @@
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/工作跟踪.xlsx
+++ b/工作跟踪.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>获取同花顺数据的时候，如果运行目录不存在数据文件夹，应该建立数据文件夹</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,14 @@
   </si>
   <si>
     <t>解决掘金Dll多工程引用，版本唯一的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K线合并的算法，日线转周线，5分钟线转15分钟线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掘金数据的接入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,42 +421,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/工作跟踪.xlsx
+++ b/工作跟踪.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="数据维护和客户端" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>获取同花顺数据的时候，如果运行目录不存在数据文件夹，应该建立数据文件夹</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,10 @@
   </si>
   <si>
     <t>掘金数据的接入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掘金客户端运行的时候，要根据当前掘金策略ID，来判断是否已经运行了相同的策略，如果存在，不允许客户端重新运行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,7 +427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -478,10 +482,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -499,6 +503,11 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
